--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solver_Minds_27_03_2024\Solver_Minds\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,9 +89,6 @@
     <t>Project_Name</t>
   </si>
   <si>
-    <t>Snaptrude</t>
-  </si>
-  <si>
     <t>Version_Name</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>https://sonata.solverminds.net/</t>
+  </si>
+  <si>
+    <t>Solverminds</t>
   </si>
 </sst>
 </file>
@@ -347,28 +347,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="Description" dataDxfId="2"/>
     <tableColumn id="2" name="Components" dataDxfId="1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,16 +813,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
